--- a/Luban/Configs/Datas/t_monster.xlsx
+++ b/Luban/Configs/Datas/t_monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385A90BA-D940-4789-AAE8-305481340083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D3FC8-37CB-4782-9EAC-0BBC3A19BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="3525" windowWidth="22545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.1,0.5,1</t>
+    <t>0.3,0.5,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/Configs/Datas/t_monster.xlsx
+++ b/Luban/Configs/Datas/t_monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D3FC8-37CB-4782-9EAC-0BBC3A19BB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8AE2C0-1D09-499D-9FC3-729DD9265382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="3525" windowWidth="22545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15555" yWindow="2025" windowWidth="22545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -83,6 +83,66 @@
   </si>
   <si>
     <t>0.3,0.5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackAudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitAudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurtAudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dieAudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talkAudio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说话音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/goblin/gbn_thw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/goblin/sticka_hit_01,sounds/goblin/sticka_hit_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/goblin/gbn_dmg_01,sounds/goblin/gbn_dmg_02,sounds/goblin/gbn_dmg_03,sounds/goblin/gbn_dmg_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/goblin/gbn_die_01,sounds/goblin/gbn_die_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sounds/goblin/gbn_talk_01,sounds/goblin/gbn_talk_02,sounds/goblin/gbn_talk_03,sounds/goblin/gbn_talk_04,sounds/goblin/gbn_talk_05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,18 +471,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +504,23 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -455,8 +536,23 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -472,8 +568,23 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -485,6 +596,21 @@
       </c>
       <c r="E4" t="s">
         <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/t_monster.xlsx
+++ b/Luban/Configs/Datas/t_monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8AE2C0-1D09-499D-9FC3-729DD9265382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B367711B-6CC7-40F7-A6B7-1294433B2929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15555" yWindow="2025" windowWidth="22545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,23 +126,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sounds/goblin/gbn_thw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/goblin/sticka_hit_01,sounds/goblin/sticka_hit_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/goblin/gbn_dmg_01,sounds/goblin/gbn_dmg_02,sounds/goblin/gbn_dmg_03,sounds/goblin/gbn_dmg_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/goblin/gbn_die_01,sounds/goblin/gbn_die_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sounds/goblin/gbn_talk_01,sounds/goblin/gbn_talk_02,sounds/goblin/gbn_talk_03,sounds/goblin/gbn_talk_04,sounds/goblin/gbn_talk_05</t>
+    <t>gbn_thw.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sticka_hit_01.ogg,sticka_hit_02.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbn_dmg_01.ogg,gbn_dmg_02.ogg,gbn_dmg_03.ogg,gbn_dmg_04.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbn_die_01.ogg,gbn_die_02.ogg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gbn_talk_01.ogg,gbn_talk_02.ogg,gbn_talk_03.ogg,gbn_talk_04.ogg,gbn_talk_05.ogg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +474,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
